--- a/forecast.xlsx
+++ b/forecast.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamcm\OneDrive\BYU\2018 Fall\STRAT 391\Capsim\forecast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14826888f217bc1b/BYU/2018 Fall/STRAT 391/Capsim/forecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{B4D6E678-6653-48C2-8632-58B6DA48405F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{E3843475-7C0D-4AA1-91F4-92CC17632180}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="102_{187EA50C-D119-4D96-83A9-AA2255575063}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{4426F7A7-7CBB-4097-9460-75225E358BD2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecaster" sheetId="3" r:id="rId1"/>
     <sheet name="survey score" sheetId="4" r:id="rId2"/>
+    <sheet name="position" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -304,6 +306,33 @@
   </si>
   <si>
     <t>Adjusted Panalty</t>
+  </si>
+  <si>
+    <t>Pfmn</t>
+  </si>
+  <si>
+    <t>s=-p+20</t>
+  </si>
+  <si>
+    <t>p=-s+20</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>s=-0.7p+22.6</t>
+  </si>
+  <si>
+    <t>p=-10s/7+226/7</t>
+  </si>
+  <si>
+    <t>p=-0.7s+11.4</t>
+  </si>
+  <si>
+    <t>s=-10p/7+114/7</t>
   </si>
 </sst>
 </file>
@@ -537,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -647,6 +676,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4033,7 +4063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581DC685-F142-49E0-A0C8-04EBECB1D341}">
   <dimension ref="B1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -5604,4 +5634,193 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2A87E5-97EC-4505-8C74-7E71EA2E72E2}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="79">
+        <v>6.4</v>
+      </c>
+      <c r="C2">
+        <v>9.4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <f>-B2+20</f>
+        <v>13.6</v>
+      </c>
+      <c r="C3" s="79">
+        <v>14.3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="79">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f>-C7+20</f>
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <f>-B6+20</f>
+        <v>17</v>
+      </c>
+      <c r="C7" s="79">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="79">
+        <v>10.1</v>
+      </c>
+      <c r="C10">
+        <f>-C11+20</f>
+        <v>14.7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <f>-B10+20</f>
+        <v>9.9</v>
+      </c>
+      <c r="C11" s="79">
+        <v>5.3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="79">
+        <v>14.9</v>
+      </c>
+      <c r="C14">
+        <f>-10*C15/7+226/7</f>
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <f>-0.7*B14+22.6</f>
+        <v>12.170000000000002</v>
+      </c>
+      <c r="C15" s="79">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="79">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <f>-7*C19/10+11.4</f>
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <f>-10*B18/7+114/7</f>
+        <v>4.8571428571428559</v>
+      </c>
+      <c r="C19" s="79">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>